--- a/helm-charts/json-comparison/release_note_promote_branch_x.xlsx
+++ b/helm-charts/json-comparison/release_note_promote_branch_x.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,15 +539,45 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>modify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>env/account_statement</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{
+    "name": "MY_ID",
+    "value": "nostro-vostro-new"
+}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Modified</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>account</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>add</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>test1</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>{
     "test2": {
@@ -558,9 +588,167 @@
 }</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Added</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>actualyaml</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>{
+    "replicaCount": 1,
+    "app": {
+        "name": "nostro-vostro"
+    },
+    "Release": {
+        "Maintainer": "mobilecapital",
+        "name": "nostro-vostro"
+    },
+    "image": {
+        "image_name": "mbrw_image",
+        "repository": "myrepo.yourrepo.com/mobilecapital/nostro-vostro",
+        "pullPolicy": "Always",
+        "tag": "0.0.4"
+    },
+    "imagePullSecrets": [
+        {
+            "name": "regvostro"
+        }
+    ],
+    "nameOverride": "nostro-vostro",
+    "fullnameOverride": "nostro-vostro",
+    "env": {
+        "account_statement": [
+            {
+                "name": "MY_ID",
+                "value": "nostro-vostro"
+            }
+        ]
+    },
+    "containerPort": 8080,
+    "data": {
+        "enabled": true
+    },
+    "serviceAccount": {
+        "create": false,
+        "annotations": {},
+        "name": ""
+    },
+    "k8s_serviceaccount": {
+        "enabled": true,
+        "k8s_serviceAccountName": "kube-svc"
+    },
+    "podAnnotations": {
+        "sidecar.istio.io/proxyCPU": "50m",
+        "sidecar.istio.io/proxyMemory": "25Mi",
+        "sidecar.istio.io/proxyMemoryLimit": "100Mi",
+        "sidecar.istio.io/proxyCPULimit": "20m",
+        "cloud.google.com/backend-config": "{\"env22\": \"http-myhc-nostro-vostro\"}",
+        "cloud.google.com/neg": "{\"ingress\": true}"
+    },
+    "volume": {
+        "enabled": false
+    },
+    "secrets": {
+        "enabled": false
+    },
+    "securityContext": {},
+    "serviceAnnotations": {
+        "cloud.google.com/backend-config": "{\"env2\": \"http-myhc-nostro-vostro\"}",
+        "cloud.google.com/neg": "{\"ingress\": true}",
+        "app.kubernetes.io/managed-by": "Helm",
+        "meta.helm.sh/release-namespace": "env2"
+    },
+    "service": {
+        "name": "nostro-vostro",
+        "type": "ClusterIP",
+        "port": 80,
+        "targetPort": 8080
+    },
+    "ingress": {
+        "enabled": true,
+        "className": "",
+        "annotations": {
+            "cloud.google.com/backend-config": {
+                "env2": "http-myhc-nostro-vostro"
+            },
+            "cloud.google.com/neg": {
+                "ingress": true
+            }
+        },
+        "hosts": [
+            {
+                "host": "nostro-vostro",
+                "paths": [
+                    {
+                        "path": "/nostro-vostro",
+                        "pathType": "ImplementationSpecific"
+                    }
+                ]
+            }
+        ],
+        "tls": []
+    },
+    "resources": null,
+    "limits": {
+        "memory": "52Mi",
+        "cpu": "50m"
+    },
+    "requests": {
+        "memory": "18Mi",
+        "cpu": "23m"
+    },
+    "autoscaling": {
+        "enabled": false,
+        "minReplicas": 5,
+        "maxReplicas": 110,
+        "targetCPUUtilizationPercentage": 70
+    },
+    "vsconfig": {
+        "enabled": true,
+        "gateway": "istio-system/istio-gateway",
+        "hostname": "*",
+        "value": "/nostro-vostro",
+        "port": 80
+    },
+    "backendconfig": {
+        "enabled": true,
+        "namespace": "env2",
+        "timeoutSec": 20,
+        "healthCheck": {
+            "requestPath": "/healthy",
+            "port": 8080,
+            "type": "HTTP"
+        },
+        "securityPolicy": {
+            "name": "fog-fw-policy"
+        }
+    },
+    "pdb": {
+        "minAvailable": 0
+    },
+    "nodeSelector": {},
+    "tolerations": [],
+    "affinity": {}
+}</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Root object added</t>
         </is>
       </c>
     </row>
@@ -575,7 +763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,18 +875,60 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>add</t>
+          <t>modify</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>test1</t>
+          <t>env/account_statement</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Modified</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>account</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Added</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>actualyaml</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Root object added</t>
         </is>
       </c>
     </row>
@@ -713,7 +943,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -825,18 +1055,60 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>add</t>
+          <t>modify</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>test1</t>
+          <t>env/account_statement</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Modified</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>account</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Added</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>actualyaml</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Root object added</t>
         </is>
       </c>
     </row>
